--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84639.56921941359</v>
+        <v>76089.20364830895</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3637822.46707957</v>
+        <v>3564775.33376729</v>
       </c>
     </row>
     <row r="11">
@@ -2087,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>343.6465684039911</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2208,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>57.16999246801792</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>207.7501450163307</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>7.537471181140739</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2399,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
         <v>107.8702810193205</v>
@@ -2415,7 +2417,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>1.468852883679208</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.10084385735772</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="25">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.15618804002114</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -2488,7 +2490,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.03151057494628</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>343.6465684039911</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>72.08725208919876</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,16 +2636,16 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6551205385437</v>
+        <v>40.8352493827204</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>57.11049760307137</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U27" t="n">
         <v>195.3773027531635</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>143.8307892292216</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2722,13 +2724,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>106.9706214097036</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C29" t="n">
+      <c r="H29" t="n">
+        <v>307.7994123985592</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>133.9282644538401</v>
+      </c>
+      <c r="T29" t="n">
+        <v>37.58178447872343</v>
+      </c>
+      <c r="U29" t="n">
+        <v>254.489886823085</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>343.6465684039911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>45.38484925554392</v>
       </c>
       <c r="D30" t="n">
         <v>115.7281862028015</v>
@@ -2886,10 +2888,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H30" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>157.7484451748619</v>
@@ -2934,10 +2936,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>47.60943471186675</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="31">
@@ -2950,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>14.3166270057378</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>252.640130875179</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="D32" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>253.5319045834835</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>343.6465684039911</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>47.08013115340739</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368965</v>
+        <v>159.6908732144031</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>65.42520756919177</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -3235,25 +3237,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>187.1591500822193</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E35" t="n">
+        <v>72.08725208919876</v>
+      </c>
+      <c r="F35" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>258.1583233478934</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3354,16 +3356,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3402,10 +3404,10 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>40.89672333046501</v>
       </c>
       <c r="W36" t="n">
-        <v>17.66596186741218</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
         <v>174.5627220424961</v>
@@ -3430,7 +3432,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>186.6550518816532</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.4216953850582</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>342.2463191728428</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.272099654432377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>73.32186889353073</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>159.6908732144031</v>
       </c>
       <c r="W39" t="n">
         <v>211.1008365810345</v>
@@ -3661,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>57.68485424712848</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>262.253757051989</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>209.7183039501509</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Y41" t="n">
-        <v>390.1527797502169</v>
+        <v>134.4601407880868</v>
       </c>
     </row>
     <row r="42">
@@ -3822,22 +3824,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,16 +3872,16 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
-        <v>45.38746855307642</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>126.6742602997031</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
@@ -3907,13 +3909,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>57.25962240569962</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>37.2541081814413</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.569312247320619</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>100.5720122196227</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4065,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>819.3996562188394</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>425.3059392994284</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.3976938477716</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>671.6489458004863</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>747.5519694058733</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>747.5519694058733</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1133.803221358588</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1133.803221358588</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1520.054473311303</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1520.054473311303</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>402.5972674193512</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>268.6021961682969</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>151.7050383876894</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>417.4634743327321</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>803.7147262854468</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1181.207134954254</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1181.207134954254</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1181.207134954254</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1531.051599638238</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1502.863651861456</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1343.521788048464</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1146.170977186682</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>932.4594501797163</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>719.2262819160451</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>542.9003000549378</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>542.9003000549378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.29477178522787</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>199.8470995074659</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>459.7441997875264</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>749.0082562280197</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1029.84703862227</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1289.407648948744</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1495.083089198357</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1475.338400676267</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1288.946632556178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1049.39789353288</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>766.5997460790038</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>492.7140010185257</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>213.6443365274001</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C23" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D23" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E23" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F23" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G23" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H23" t="n">
         <v>31.21222238001735</v>
@@ -5987,52 +5989,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J23" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K23" t="n">
-        <v>417.4634743327321</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L23" t="n">
-        <v>803.7147262854468</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M23" t="n">
-        <v>1189.965978238161</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N23" t="n">
-        <v>1520.054473311303</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O23" t="n">
-        <v>1520.054473311303</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P23" t="n">
-        <v>1520.054473311303</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q23" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R23" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S23" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T23" t="n">
-        <v>1203.123559741827</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U23" t="n">
-        <v>946.0630680013373</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V23" t="n">
-        <v>736.2144366717104</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="W23" t="n">
-        <v>736.2144366717104</v>
+        <v>827.0132634725169</v>
       </c>
       <c r="X23" t="n">
-        <v>736.2144366717104</v>
+        <v>432.9195465531059</v>
       </c>
       <c r="Y23" t="n">
-        <v>736.2144366717104</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>317.909427847458</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C24" t="n">
-        <v>317.909427847458</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D24" t="n">
-        <v>317.909427847458</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E24" t="n">
-        <v>317.909427847458</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F24" t="n">
-        <v>208.9495480299626</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G24" t="n">
-        <v>101.9594353443013</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H24" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I24" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J24" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K24" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L24" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M24" t="n">
-        <v>803.7147262854468</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N24" t="n">
-        <v>1189.965978238161</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O24" t="n">
-        <v>1531.051599638238</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="P24" t="n">
-        <v>1531.051599638238</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="Q24" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R24" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S24" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T24" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U24" t="n">
-        <v>1095.928434440403</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="V24" t="n">
-        <v>882.216907433437</v>
+        <v>1187.55772818091</v>
       </c>
       <c r="W24" t="n">
-        <v>668.9837391697657</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X24" t="n">
-        <v>492.6577573086585</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y24" t="n">
-        <v>458.2124604830447</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>687.3421805164801</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="C25" t="n">
-        <v>516.2488080781966</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="D25" t="n">
-        <v>356.7541634011066</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E25" t="n">
-        <v>195.8433482694261</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F25" t="n">
-        <v>31.21222238001735</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G25" t="n">
         <v>31.21222238001735</v>
@@ -6148,13 +6150,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K25" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L25" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M25" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N25" t="n">
         <v>1029.84703862227</v>
@@ -6169,28 +6171,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R25" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S25" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T25" t="n">
-        <v>1049.39789353288</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U25" t="n">
-        <v>1049.39789353288</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V25" t="n">
-        <v>1049.39789353288</v>
+        <v>1286.72537394039</v>
       </c>
       <c r="W25" t="n">
-        <v>770.328229041754</v>
+        <v>1007.655709449264</v>
       </c>
       <c r="X25" t="n">
-        <v>770.328229041754</v>
+        <v>769.3118473089473</v>
       </c>
       <c r="Y25" t="n">
-        <v>770.328229041754</v>
+        <v>711.7042608696077</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1560.611119000868</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="C26" t="n">
-        <v>1213.49337313825</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="D26" t="n">
-        <v>1213.49337313825</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="E26" t="n">
-        <v>819.3996562188394</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="F26" t="n">
-        <v>425.3059392994284</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="G26" t="n">
-        <v>31.21222238001735</v>
+        <v>414.9361259030052</v>
       </c>
       <c r="H26" t="n">
-        <v>31.21222238001735</v>
+        <v>104.0276285307232</v>
       </c>
       <c r="I26" t="n">
         <v>31.21222238001735</v>
@@ -6230,16 +6232,16 @@
         <v>285.3976938477716</v>
       </c>
       <c r="L26" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M26" t="n">
-        <v>1057.900197753201</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N26" t="n">
-        <v>1198.893466516011</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O26" t="n">
-        <v>1198.893466516011</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P26" t="n">
         <v>1198.893466516011</v>
@@ -6251,25 +6253,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S26" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T26" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U26" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V26" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W26" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="X26" t="n">
-        <v>1560.611119000868</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="Y26" t="n">
-        <v>1560.611119000868</v>
+        <v>809.0298428224162</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>460.284638735585</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C27" t="n">
-        <v>326.2895674845307</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="D27" t="n">
-        <v>209.3924097039231</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E27" t="n">
-        <v>88.89959369625106</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F27" t="n">
         <v>31.21222238001735</v>
@@ -6303,52 +6305,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J27" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K27" t="n">
-        <v>372.2978437800934</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L27" t="n">
-        <v>372.2978437800934</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M27" t="n">
-        <v>758.5490957328082</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N27" t="n">
-        <v>1144.800347685523</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="O27" t="n">
-        <v>1531.051599638238</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="P27" t="n">
-        <v>1531.051599638238</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q27" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R27" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S27" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T27" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U27" t="n">
-        <v>1363.260308139086</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V27" t="n">
-        <v>1149.54878113212</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W27" t="n">
-        <v>936.3156128684487</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X27" t="n">
-        <v>759.9896310073416</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y27" t="n">
-        <v>600.5876713711716</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1004.20002678548</v>
+        <v>630.7621873641457</v>
       </c>
       <c r="C28" t="n">
-        <v>833.1066543471966</v>
+        <v>459.6688149258622</v>
       </c>
       <c r="D28" t="n">
-        <v>673.6120096701065</v>
+        <v>300.1741702487722</v>
       </c>
       <c r="E28" t="n">
-        <v>512.7011945384261</v>
+        <v>139.2633551170917</v>
       </c>
       <c r="F28" t="n">
-        <v>348.0700686490173</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G28" t="n">
-        <v>180.8196775745607</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H28" t="n">
         <v>31.21222238001735</v>
@@ -6388,10 +6390,10 @@
         <v>199.8470995074659</v>
       </c>
       <c r="L28" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M28" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N28" t="n">
         <v>1029.84703862227</v>
@@ -6409,25 +6411,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S28" t="n">
-        <v>1374.219350880778</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T28" t="n">
-        <v>1374.219350880778</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U28" t="n">
-        <v>1374.219350880778</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V28" t="n">
-        <v>1374.219350880778</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W28" t="n">
-        <v>1374.219350880778</v>
+        <v>1281.541454509742</v>
       </c>
       <c r="X28" t="n">
-        <v>1374.219350880778</v>
+        <v>1043.197592369425</v>
       </c>
       <c r="Y28" t="n">
-        <v>1149.483652269542</v>
+        <v>818.4618937581901</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>819.3996562188394</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C29" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D29" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E29" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F29" t="n">
-        <v>31.21222238001735</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="G29" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H29" t="n">
         <v>31.21222238001735</v>
@@ -6464,16 +6466,16 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K29" t="n">
+        <v>285.3976938477716</v>
+      </c>
+      <c r="L29" t="n">
+        <v>285.3976938477716</v>
+      </c>
+      <c r="M29" t="n">
         <v>671.6489458004863</v>
       </c>
-      <c r="L29" t="n">
-        <v>671.6489458004863</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1057.900197753201</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1198.893466516011</v>
       </c>
       <c r="O29" t="n">
         <v>1198.893466516011</v>
@@ -6488,25 +6490,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S29" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T29" t="n">
-        <v>1560.611119000868</v>
+        <v>1387.368645331611</v>
       </c>
       <c r="U29" t="n">
-        <v>1560.611119000868</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="V29" t="n">
-        <v>1560.611119000868</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="W29" t="n">
-        <v>1560.611119000868</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="X29" t="n">
-        <v>1560.611119000868</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y29" t="n">
-        <v>1213.49337313825</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>480.5903684413843</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C30" t="n">
-        <v>346.59529719033</v>
+        <v>255.0994928462862</v>
       </c>
       <c r="D30" t="n">
-        <v>229.6981394097224</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="E30" t="n">
-        <v>229.6981394097224</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="F30" t="n">
-        <v>229.6981394097224</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="G30" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H30" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I30" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J30" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K30" t="n">
-        <v>401.8573631427234</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L30" t="n">
-        <v>401.8573631427234</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M30" t="n">
-        <v>788.1086150954382</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="N30" t="n">
-        <v>788.1086150954382</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="O30" t="n">
-        <v>1174.359867048153</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="P30" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q30" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R30" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S30" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T30" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U30" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V30" t="n">
-        <v>882.216907433437</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W30" t="n">
-        <v>668.9837391697657</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X30" t="n">
-        <v>620.893401076971</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y30" t="n">
-        <v>620.893401076971</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>511.4076946899341</v>
+        <v>538.4657938752982</v>
       </c>
       <c r="C31" t="n">
-        <v>340.3143222516507</v>
+        <v>538.4657938752982</v>
       </c>
       <c r="D31" t="n">
-        <v>180.8196775745607</v>
+        <v>538.4657938752982</v>
       </c>
       <c r="E31" t="n">
-        <v>180.8196775745607</v>
+        <v>377.5549787436177</v>
       </c>
       <c r="F31" t="n">
-        <v>180.8196775745607</v>
+        <v>212.923852854209</v>
       </c>
       <c r="G31" t="n">
-        <v>180.8196775745607</v>
+        <v>45.67346177975239</v>
       </c>
       <c r="H31" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001724</v>
       </c>
       <c r="I31" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001724</v>
       </c>
       <c r="J31" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522779</v>
       </c>
       <c r="K31" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L31" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875263</v>
       </c>
       <c r="M31" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N31" t="n">
         <v>1029.84703862227</v>
@@ -6643,28 +6645,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R31" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S31" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T31" t="n">
-        <v>1049.39789353288</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U31" t="n">
-        <v>766.5997460790038</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="V31" t="n">
-        <v>511.4076946899341</v>
+        <v>817.5354583664239</v>
       </c>
       <c r="W31" t="n">
-        <v>511.4076946899341</v>
+        <v>538.4657938752982</v>
       </c>
       <c r="X31" t="n">
-        <v>511.4076946899341</v>
+        <v>538.4657938752982</v>
       </c>
       <c r="Y31" t="n">
-        <v>511.4076946899341</v>
+        <v>538.4657938752982</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1213.49337313825</v>
+        <v>1075.492489131449</v>
       </c>
       <c r="C32" t="n">
-        <v>819.3996562188394</v>
+        <v>1075.492489131449</v>
       </c>
       <c r="D32" t="n">
-        <v>425.3059392994284</v>
+        <v>1075.492489131449</v>
       </c>
       <c r="E32" t="n">
-        <v>425.3059392994284</v>
+        <v>681.398772212038</v>
       </c>
       <c r="F32" t="n">
-        <v>31.21222238001735</v>
+        <v>287.305055292627</v>
       </c>
       <c r="G32" t="n">
         <v>31.21222238001735</v>
@@ -6701,13 +6703,13 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K32" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L32" t="n">
-        <v>803.7147262854468</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="M32" t="n">
-        <v>1133.803221358588</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="N32" t="n">
         <v>1133.803221358588</v>
@@ -6725,25 +6727,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S32" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T32" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U32" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V32" t="n">
-        <v>1560.611119000868</v>
+        <v>1075.492489131449</v>
       </c>
       <c r="W32" t="n">
-        <v>1213.49337313825</v>
+        <v>1075.492489131449</v>
       </c>
       <c r="X32" t="n">
-        <v>1213.49337313825</v>
+        <v>1075.492489131449</v>
       </c>
       <c r="Y32" t="n">
-        <v>1213.49337313825</v>
+        <v>1075.492489131449</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>285.7001096387437</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C33" t="n">
-        <v>151.7050383876894</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D33" t="n">
-        <v>151.7050383876894</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E33" t="n">
-        <v>31.21222238001735</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F33" t="n">
-        <v>31.21222238001735</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G33" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H33" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I33" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J33" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K33" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L33" t="n">
-        <v>372.2978437800934</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M33" t="n">
-        <v>758.5490957328082</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="N33" t="n">
         <v>1144.800347685523</v>
       </c>
       <c r="O33" t="n">
-        <v>1531.051599638238</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="P33" t="n">
         <v>1531.051599638238</v>
@@ -6804,25 +6806,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S33" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T33" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U33" t="n">
-        <v>1095.928434440403</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V33" t="n">
-        <v>882.216907433437</v>
+        <v>1399.307206663087</v>
       </c>
       <c r="W33" t="n">
-        <v>668.9837391697657</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X33" t="n">
-        <v>492.6577573086585</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y33" t="n">
-        <v>333.2557976724885</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>635.5094869829746</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="C34" t="n">
-        <v>464.4161145446911</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="D34" t="n">
-        <v>464.4161145446911</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="E34" t="n">
-        <v>464.4161145446911</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="F34" t="n">
-        <v>464.4161145446911</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="G34" t="n">
-        <v>297.1657234702345</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="H34" t="n">
         <v>147.5582682756912</v>
@@ -6856,16 +6858,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J34" t="n">
-        <v>45.29477178522814</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K34" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L34" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M34" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N34" t="n">
         <v>1029.84703862227</v>
@@ -6883,25 +6885,25 @@
         <v>1475.338400676267</v>
       </c>
       <c r="S34" t="n">
-        <v>1475.338400676267</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T34" t="n">
-        <v>1475.338400676267</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U34" t="n">
-        <v>1475.338400676267</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V34" t="n">
-        <v>1475.338400676267</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W34" t="n">
-        <v>1286.288754128571</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="X34" t="n">
-        <v>1047.944891988254</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="Y34" t="n">
-        <v>823.209193377019</v>
+        <v>213.6443365274001</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1166.517402081457</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="C35" t="n">
-        <v>1166.517402081457</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="D35" t="n">
-        <v>1166.517402081457</v>
+        <v>809.0298428224162</v>
       </c>
       <c r="E35" t="n">
-        <v>772.4236851620456</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F35" t="n">
-        <v>772.4236851620456</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G35" t="n">
-        <v>378.3299682426345</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H35" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I35" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J35" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K35" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L35" t="n">
-        <v>671.6489458004863</v>
+        <v>361.3007174531585</v>
       </c>
       <c r="M35" t="n">
-        <v>1057.900197753201</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="N35" t="n">
-        <v>1057.900197753201</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="O35" t="n">
-        <v>1239.450112205576</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P35" t="n">
-        <v>1239.450112205576</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q35" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R35" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S35" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T35" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U35" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V35" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W35" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="X35" t="n">
-        <v>1166.517402081457</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="Y35" t="n">
-        <v>1166.517402081457</v>
+        <v>1203.123559741827</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>710.0430642665517</v>
+        <v>473.3444803836352</v>
       </c>
       <c r="C36" t="n">
-        <v>576.0479930154975</v>
+        <v>339.3494091325809</v>
       </c>
       <c r="D36" t="n">
-        <v>459.1508352348899</v>
+        <v>222.4522513519733</v>
       </c>
       <c r="E36" t="n">
-        <v>338.6580192272179</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="F36" t="n">
-        <v>229.6981394097224</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="G36" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H36" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I36" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J36" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K36" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L36" t="n">
-        <v>372.2978437800934</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M36" t="n">
-        <v>372.2978437800934</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N36" t="n">
-        <v>758.5490957328082</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O36" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P36" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q36" t="n">
         <v>1531.051599638238</v>
@@ -7050,16 +7052,16 @@
         <v>1203.918444326094</v>
       </c>
       <c r="V36" t="n">
-        <v>1203.918444326094</v>
+        <v>1162.60862278017</v>
       </c>
       <c r="W36" t="n">
-        <v>1186.074038399415</v>
+        <v>949.3754545164991</v>
       </c>
       <c r="X36" t="n">
-        <v>1009.748056538308</v>
+        <v>773.0494726553918</v>
       </c>
       <c r="Y36" t="n">
-        <v>850.3460969021384</v>
+        <v>613.6475130192218</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.546072681154</v>
+        <v>959.6352575494734</v>
       </c>
       <c r="C37" t="n">
-        <v>949.4527002428704</v>
+        <v>788.5418851111899</v>
       </c>
       <c r="D37" t="n">
-        <v>789.9580555657803</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="E37" t="n">
         <v>629.0472404340999</v>
@@ -7093,16 +7095,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J37" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522814</v>
       </c>
       <c r="K37" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L37" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M37" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N37" t="n">
         <v>1029.84703862227</v>
@@ -7117,28 +7119,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R37" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S37" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T37" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U37" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V37" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W37" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X37" t="n">
-        <v>1475.338400676267</v>
+        <v>1372.070662554753</v>
       </c>
       <c r="Y37" t="n">
-        <v>1308.245779075198</v>
+        <v>1147.334963943518</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.21222238001735</v>
+        <v>1168.269552054478</v>
       </c>
       <c r="C38" t="n">
-        <v>31.21222238001735</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="D38" t="n">
-        <v>31.21222238001735</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="E38" t="n">
-        <v>31.21222238001735</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="F38" t="n">
-        <v>31.21222238001735</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="G38" t="n">
-        <v>31.21222238001735</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H38" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I38" t="n">
         <v>31.21222238001735</v>
@@ -7175,25 +7177,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K38" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L38" t="n">
-        <v>803.7147262854468</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M38" t="n">
-        <v>803.7147262854468</v>
+        <v>80.69635634743145</v>
       </c>
       <c r="N38" t="n">
-        <v>812.642214563296</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="O38" t="n">
-        <v>812.642214563296</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P38" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q38" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R38" t="n">
         <v>1560.611119000868</v>
@@ -7208,16 +7210,16 @@
         <v>1168.269552054478</v>
       </c>
       <c r="V38" t="n">
-        <v>818.4319973909592</v>
+        <v>1168.269552054478</v>
       </c>
       <c r="W38" t="n">
-        <v>434.6716965261277</v>
+        <v>1168.269552054478</v>
       </c>
       <c r="X38" t="n">
-        <v>434.6716965261277</v>
+        <v>1168.269552054478</v>
       </c>
       <c r="Y38" t="n">
-        <v>425.3059392994284</v>
+        <v>1168.269552054478</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>689.2944728867919</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C39" t="n">
-        <v>555.2994016357376</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D39" t="n">
-        <v>438.40224385513</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E39" t="n">
-        <v>317.909427847458</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F39" t="n">
-        <v>208.9495480299626</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G39" t="n">
-        <v>101.9594353443013</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H39" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I39" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J39" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K39" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L39" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="M39" t="n">
-        <v>401.8573631427234</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="N39" t="n">
-        <v>788.1086150954382</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="O39" t="n">
-        <v>1174.359867048153</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P39" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q39" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R39" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S39" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T39" t="n">
-        <v>1378.558615283327</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U39" t="n">
-        <v>1378.558615283327</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V39" t="n">
-        <v>1378.558615283327</v>
+        <v>1399.307206663087</v>
       </c>
       <c r="W39" t="n">
-        <v>1165.325447019656</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X39" t="n">
-        <v>988.9994651585486</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y39" t="n">
-        <v>829.5975055223786</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>260.5731243608549</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C40" t="n">
-        <v>89.47975192257138</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D40" t="n">
-        <v>89.47975192257138</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E40" t="n">
         <v>31.21222238001735</v>
@@ -7327,19 +7329,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="I40" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001761</v>
       </c>
       <c r="J40" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522814</v>
       </c>
       <c r="K40" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L40" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M40" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N40" t="n">
         <v>1029.84703862227</v>
@@ -7366,16 +7368,16 @@
         <v>1038.264232523694</v>
       </c>
       <c r="V40" t="n">
-        <v>764.3784874632158</v>
+        <v>773.3614476226949</v>
       </c>
       <c r="W40" t="n">
-        <v>485.3088229720902</v>
+        <v>494.2917831315693</v>
       </c>
       <c r="X40" t="n">
-        <v>485.3088229720902</v>
+        <v>255.9479209912527</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.5731243608549</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7387,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>425.3059392994284</v>
+        <v>511.6577019823551</v>
       </c>
       <c r="C41" t="n">
-        <v>31.21222238001735</v>
+        <v>511.6577019823551</v>
       </c>
       <c r="D41" t="n">
-        <v>31.21222238001735</v>
+        <v>511.6577019823551</v>
       </c>
       <c r="E41" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="F41" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="G41" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H41" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I41" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J41" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K41" t="n">
-        <v>671.6489458004863</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="L41" t="n">
-        <v>671.6489458004863</v>
+        <v>40.13971065786643</v>
       </c>
       <c r="M41" t="n">
-        <v>1057.900197753201</v>
+        <v>426.390962610581</v>
       </c>
       <c r="N41" t="n">
-        <v>1057.900197753201</v>
+        <v>812.6422145632956</v>
       </c>
       <c r="O41" t="n">
-        <v>1198.893466516011</v>
+        <v>812.6422145632956</v>
       </c>
       <c r="P41" t="n">
-        <v>1198.893466516011</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="Q41" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R41" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S41" t="n">
         <v>1425.330043794968</v>
@@ -7448,13 +7450,13 @@
         <v>1425.330043794968</v>
       </c>
       <c r="W41" t="n">
-        <v>1425.330043794968</v>
+        <v>1041.569742930136</v>
       </c>
       <c r="X41" t="n">
-        <v>1213.49337313825</v>
+        <v>647.4760260107256</v>
       </c>
       <c r="Y41" t="n">
-        <v>819.3996562188394</v>
+        <v>511.6577019823551</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>306.4487010185035</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C42" t="n">
-        <v>172.4536297674492</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D42" t="n">
-        <v>172.4536297674492</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E42" t="n">
-        <v>51.96081375977718</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F42" t="n">
-        <v>51.96081375977718</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G42" t="n">
-        <v>51.96081375977718</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H42" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I42" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J42" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K42" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="L42" t="n">
-        <v>610.2763318953653</v>
+        <v>408.7046310488247</v>
       </c>
       <c r="M42" t="n">
-        <v>996.52758384808</v>
+        <v>408.7046310488247</v>
       </c>
       <c r="N42" t="n">
-        <v>1382.778835800795</v>
+        <v>408.7046310488247</v>
       </c>
       <c r="O42" t="n">
-        <v>1560.611119000868</v>
+        <v>794.9558830015393</v>
       </c>
       <c r="P42" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q42" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R42" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S42" t="n">
         <v>1452.621109115176</v>
       </c>
       <c r="T42" t="n">
-        <v>1406.775181283786</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="U42" t="n">
-        <v>1209.424370422005</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="V42" t="n">
-        <v>995.7128434150385</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="W42" t="n">
-        <v>782.4796751513672</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="X42" t="n">
-        <v>606.1536932902601</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="Y42" t="n">
-        <v>446.7517336540901</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1013.752949221745</v>
+        <v>1008.569029791097</v>
       </c>
       <c r="C43" t="n">
-        <v>842.6595767834613</v>
+        <v>837.4756573528132</v>
       </c>
       <c r="D43" t="n">
-        <v>683.1649321063712</v>
+        <v>677.9810126757232</v>
       </c>
       <c r="E43" t="n">
-        <v>522.2541169746908</v>
+        <v>517.0701975440427</v>
       </c>
       <c r="F43" t="n">
-        <v>464.4161145446911</v>
+        <v>352.4390716546339</v>
       </c>
       <c r="G43" t="n">
-        <v>297.1657234702345</v>
+        <v>185.1886805801774</v>
       </c>
       <c r="H43" t="n">
         <v>147.5582682756912</v>
@@ -7567,16 +7569,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J43" t="n">
-        <v>45.29477178522814</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K43" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L43" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M43" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N43" t="n">
         <v>1029.84703862227</v>
@@ -7585,10 +7587,10 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P43" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q43" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R43" t="n">
         <v>1475.338400676267</v>
@@ -7603,16 +7605,16 @@
         <v>1475.338400676267</v>
       </c>
       <c r="V43" t="n">
-        <v>1201.452655615789</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="W43" t="n">
-        <v>1201.452655615789</v>
+        <v>1196.268736185141</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.452655615789</v>
+        <v>1196.268736185141</v>
       </c>
       <c r="Y43" t="n">
-        <v>1201.452655615789</v>
+        <v>1196.268736185141</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>36.83779030660384</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>347.7462876788858</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>231.6679065415565</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>231.6679065415565</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>231.6679065415565</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>231.6679065415565</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1029.84703862227</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1289.407648948744</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
     </row>
   </sheetData>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>172.155118876367</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,13 +9485,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>434.4988566955759</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
@@ -9498,10 +9500,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L22" t="n">
-        <v>317.1506174091142</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M22" t="n">
-        <v>348.4508580952379</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N22" t="n">
-        <v>335.3881832803894</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>426.3350130527216</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>276.5735275978786</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L24" t="n">
         <v>446.2673035610659</v>
@@ -9726,19 +9728,19 @@
         <v>447.7170634886343</v>
       </c>
       <c r="N24" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>402.2824097071477</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>236.3211873938012</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9796,7 +9798,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>208.363831904762</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
@@ -9878,19 +9880,19 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>235.3297339513764</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O26" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
@@ -9951,10 +9953,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>205.5962513072849</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
@@ -9969,13 +9971,13 @@
         <v>447.9042587502169</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>75.27041892070574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10036,7 +10038,7 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
-        <v>317.1506174091142</v>
+        <v>317.1506174091145</v>
       </c>
       <c r="M28" t="n">
         <v>348.4508580952379</v>
@@ -10112,7 +10114,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
         <v>95.48539806284482</v>
@@ -10121,10 +10123,10 @@
         <v>483.4430042072623</v>
       </c>
       <c r="N29" t="n">
-        <v>235.3297339513764</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>235.6072188205402</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10188,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>430.2148138580559</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M30" t="n">
-        <v>447.7170634886343</v>
+        <v>207.334752261087</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>444.4124147530206</v>
@@ -10212,7 +10214,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,16 +10351,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>485.6381778130617</v>
+        <v>428.908120358947</v>
       </c>
       <c r="M32" t="n">
-        <v>426.7129467531477</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O32" t="n">
         <v>483.342555376</v>
@@ -10425,25 +10427,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L33" t="n">
-        <v>400.6454545179966</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M33" t="n">
-        <v>447.7170634886343</v>
+        <v>207.334752261087</v>
       </c>
       <c r="N33" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195622</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
         <v>208.3638319047618</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>485.6381778130617</v>
+        <v>428.908120358947</v>
       </c>
       <c r="M35" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O35" t="n">
-        <v>276.5735275978785</v>
+        <v>483.342555376</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L36" t="n">
-        <v>400.6454545179966</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N36" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195622</v>
       </c>
       <c r="K37" t="n">
         <v>208.3638319047618</v>
@@ -10823,19 +10825,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>143.2741981615041</v>
       </c>
       <c r="N38" t="n">
-        <v>101.9299556837397</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O38" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P38" t="n">
         <v>483.8021430311011</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
@@ -10908,10 +10910,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>431.9533148118579</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>443.3461731439669</v>
+        <v>239.7383945110978</v>
       </c>
       <c r="O39" t="n">
         <v>447.9042587502169</v>
@@ -10920,10 +10922,10 @@
         <v>444.4124147530206</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>104.5030629899651</v>
       </c>
       <c r="M41" t="n">
-        <v>483.4430042072623</v>
+        <v>483.4430042072622</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068361</v>
       </c>
       <c r="O41" t="n">
-        <v>235.6072188205402</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>483.802143031101</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>446.2673035610659</v>
+        <v>437.4199871126747</v>
       </c>
       <c r="M42" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>237.3800478889625</v>
+        <v>447.9042587502168</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530205</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195622</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
         <v>208.3638319047618</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>169.5820115701414</v>
       </c>
       <c r="O44" t="n">
         <v>93.18977562578313</v>
@@ -11318,7 +11320,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,22 +11381,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>75.27041892070574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>56.07489807299633</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23975,13 +23977,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24026,7 +24028,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>2.692610712892986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24045,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
         <v>107.8702810193205</v>
@@ -24096,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>49.74011731881634</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24221,7 +24223,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>138.5890341005534</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>389.3898351402501</v>
       </c>
     </row>
     <row r="24">
@@ -24285,13 +24287,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24303,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>209.6319836973553</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>123.7070961824506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103.6665212900828</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4568310501766</v>
       </c>
     </row>
     <row r="26">
@@ -24443,25 +24445,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>62.37677637587143</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>14.48822151587922</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>13.40099296689881</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -24506,7 +24508,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24522,16 +24524,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>91.81987115582334</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>50.75978341624909</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
         <v>105.9202115588047</v>
@@ -24570,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.99192010088237</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>56.01419322081105</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24649,7 +24651,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -24661,10 +24663,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24689,13 +24691,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>182.4026347338863</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24743,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y29" t="n">
-        <v>53.28073791739968</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>87.27027128299983</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24774,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24822,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>126.9532873306294</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24838,22 +24840,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.7947536368601</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>18.50675673469431</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24917,19 +24919,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F32" t="n">
         <v>26.66732817563241</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>151.1090966826126</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -24974,10 +24976,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>36.27612945219198</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>91.81987115582336</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,16 +25046,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>51.88353852249338</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25087,10 +25089,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>82.68617307340614</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>89.11981776399506</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25157,22 +25159,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E35" t="n">
-        <v>20.04403357805535</v>
+        <v>338.1095612390735</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G35" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>49.64108905066576</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -25217,7 +25219,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25242,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25290,10 +25292,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>170.6776884064315</v>
       </c>
       <c r="W36" t="n">
-        <v>193.4348747136223</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25375,10 +25377,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>49.30537163726024</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.06664624006473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>63.77702560701971</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25400,16 +25402,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.6552066669584</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25488,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,16 +25520,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
-        <v>84.42657628133114</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U39" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>51.88353852249338</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>101.6168527332352</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>8.893130557884263</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805546</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -25646,7 +25648,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>186.9186599025861</v>
+        <v>6.484184102520203</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.774526571173908</v>
+        <v>262.467165533304</v>
       </c>
     </row>
     <row r="42">
@@ -25710,22 +25712,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25758,16 +25760,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>112.3609766217855</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>84.42657628133141</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>105.725192224815</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>110.8572724611566</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,10 +25845,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -25880,10 +25882,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>79.91893280877694</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>38.32799008960808</v>
       </c>
       <c r="C45" t="n">
         <v>132.6551205385437</v>
@@ -25953,16 +25955,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26074,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493560.0360921597</v>
+        <v>150357.0455461972</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>493560.0360921598</v>
+        <v>493560.0360921597</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>493560.0360921597</v>
+        <v>493560.0360921596</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>493560.0360921596</v>
+        <v>493560.0360921598</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>493560.0360921596</v>
+        <v>493560.0360921597</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150357.0455461972</v>
+        <v>493560.0360921597</v>
       </c>
     </row>
   </sheetData>
@@ -26329,7 +26331,7 @@
         <v>31526.47729194457</v>
       </c>
       <c r="H2" t="n">
-        <v>103370.7551601573</v>
+        <v>31526.47729194457</v>
       </c>
       <c r="I2" t="n">
         <v>103370.7551601573</v>
@@ -26350,10 +26352,10 @@
         <v>103370.7551601573</v>
       </c>
       <c r="O2" t="n">
-        <v>103370.7551601574</v>
+        <v>103370.7551601573</v>
       </c>
       <c r="P2" t="n">
-        <v>31526.47729194457</v>
+        <v>103370.7551601573</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105266.7313516263</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>103749.8173439574</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26433,31 +26435,31 @@
         <v>12125.56818920945</v>
       </c>
       <c r="H4" t="n">
+        <v>12125.56818920945</v>
+      </c>
+      <c r="I4" t="n">
+        <v>40657.3542717251</v>
+      </c>
+      <c r="J4" t="n">
+        <v>40657.3542717251</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40657.35427172508</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40657.35427172508</v>
+      </c>
+      <c r="M4" t="n">
+        <v>40657.3542717251</v>
+      </c>
+      <c r="N4" t="n">
+        <v>40657.3542717251</v>
+      </c>
+      <c r="O4" t="n">
+        <v>40657.35427172508</v>
+      </c>
+      <c r="P4" t="n">
         <v>40657.35427172509</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40657.35427172509</v>
-      </c>
-      <c r="J4" t="n">
-        <v>40657.35427172508</v>
-      </c>
-      <c r="K4" t="n">
-        <v>40657.35427172509</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40657.3542717251</v>
-      </c>
-      <c r="M4" t="n">
-        <v>40657.35427172509</v>
-      </c>
-      <c r="N4" t="n">
-        <v>40657.35427172509</v>
-      </c>
-      <c r="O4" t="n">
-        <v>40657.35427172509</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12125.56818920945</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>23721.28900881319</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>23721.28900881319</v>
@@ -26506,10 +26508,10 @@
         <v>23721.28900881319</v>
       </c>
       <c r="O5" t="n">
+        <v>23721.28900881318</v>
+      </c>
+      <c r="P5" t="n">
         <v>23721.28900881319</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26537,31 +26539,31 @@
         <v>19400.90910273512</v>
       </c>
       <c r="H6" t="n">
-        <v>-66274.61947200725</v>
+        <v>19400.90910273512</v>
       </c>
       <c r="I6" t="n">
+        <v>-64757.70546433839</v>
+      </c>
+      <c r="J6" t="n">
         <v>38992.11187961901</v>
       </c>
-      <c r="J6" t="n">
-        <v>38992.11187961907</v>
-      </c>
       <c r="K6" t="n">
-        <v>38992.11187961904</v>
+        <v>38992.11187961906</v>
       </c>
       <c r="L6" t="n">
-        <v>38992.11187961903</v>
+        <v>38992.11187961906</v>
       </c>
       <c r="M6" t="n">
-        <v>38992.11187961904</v>
+        <v>38992.11187961901</v>
       </c>
       <c r="N6" t="n">
         <v>38992.11187961903</v>
       </c>
       <c r="O6" t="n">
-        <v>38992.11187961907</v>
+        <v>38992.11187961903</v>
       </c>
       <c r="P6" t="n">
-        <v>19400.90910273512</v>
+        <v>38992.11187961904</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>390.1527797502169</v>
@@ -26826,10 +26828,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="O4" t="n">
+        <v>390.1527797502168</v>
+      </c>
+      <c r="P4" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>76.66972081352215</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>381.3054633018259</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.22479737900053</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>156.1134623456949</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>262.5223235152127</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>292.1859155964578</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>283.67553777197</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>262.1824346732062</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>207.7529699491034</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.18992909344529</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L23" t="n">
+      <c r="O23" t="n">
+        <v>183.3837519720955</v>
+      </c>
+      <c r="P23" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M23" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N23" t="n">
-        <v>333.4227222961023</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L24" t="n">
         <v>390.1527797502169</v>
@@ -36446,19 +36448,19 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N24" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>344.5309307071477</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,7 +36518,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K25" t="n">
-        <v>156.1134623456949</v>
+        <v>156.1134623456952</v>
       </c>
       <c r="L25" t="n">
         <v>262.5223235152127</v>
@@ -36598,19 +36600,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O26" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M26" t="n">
+      <c r="P26" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N26" t="n">
-        <v>142.4174431947571</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>324.4050573689818</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>149.7704685226695</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>21.01078391790199</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,7 +36758,7 @@
         <v>156.1134623456949</v>
       </c>
       <c r="L28" t="n">
-        <v>262.5223235152127</v>
+        <v>262.522323515213</v>
       </c>
       <c r="M28" t="n">
         <v>292.1859155964578</v>
@@ -36832,7 +36834,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36841,10 +36843,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N29" t="n">
+        <v>390.1527797502169</v>
+      </c>
+      <c r="O29" t="n">
         <v>142.4174431947571</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>374.3890310734405</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M30" t="n">
-        <v>390.1527797502169</v>
+        <v>149.7704685226696</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>390.1527797502169</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,16 +37071,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>333.4227222961022</v>
+      </c>
+      <c r="M32" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M32" t="n">
-        <v>333.4227222961022</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>390.1527797502169</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L33" t="n">
-        <v>344.5309307071475</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M33" t="n">
+        <v>149.7704685226696</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N33" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O33" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>14.22479737900079</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K34" t="n">
         <v>156.1134623456949</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>390.1527797502169</v>
+        <v>333.4227222961022</v>
       </c>
       <c r="M35" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O35" t="n">
-        <v>183.3837519720954</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L36" t="n">
-        <v>344.5309307071475</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N36" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900079</v>
       </c>
       <c r="K37" t="n">
         <v>156.1134623456949</v>
@@ -37482,7 +37484,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.18992909344536</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,19 +37545,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>49.98397370445868</v>
+      </c>
+      <c r="N38" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L38" t="n">
+      <c r="O38" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>9.017664927120396</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>390.1527797502169</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173478</v>
       </c>
       <c r="O39" t="n">
         <v>390.1527797502169</v>
@@ -37640,10 +37642,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>9.01766492712029</v>
       </c>
       <c r="M41" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O41" t="n">
-        <v>142.4174431947571</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>390.1527797502169</v>
+        <v>381.3054633018256</v>
       </c>
       <c r="M42" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>179.6285688889625</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.22479737900079</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K43" t="n">
         <v>156.1134623456949</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>21.01078391790199</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76089.20364830895</v>
+        <v>66154.61953831489</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18158024.90737736</v>
+        <v>18158024.90737734</v>
       </c>
     </row>
     <row r="8">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>125.396777664673</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.537471181140739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I24" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T24" t="n">
         <v>157.7484451748619</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1.468852883679208</v>
+        <v>126.6742602997035</v>
       </c>
       <c r="X24" t="n">
         <v>174.5627220424961</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>136.9113285461662</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.03151057494628</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>143.2003641082727</v>
       </c>
       <c r="I26" t="n">
-        <v>72.08725208919876</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,25 +2636,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>40.8352493827204</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>70.53218915774207</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>157.7484451748619</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2724,7 +2724,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>106.9706214097036</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>132.582543204567</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>37.58178447872343</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>259.3250421185132</v>
       </c>
     </row>
     <row r="30">
@@ -2873,19 +2873,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>45.38484925554392</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T30" t="n">
         <v>157.7484451748619</v>
@@ -2930,10 +2930,10 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V30" t="n">
-        <v>211.5744117368965</v>
+        <v>107.2569099399857</v>
       </c>
       <c r="W30" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>174.5627220424961</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>14.3166270057378</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>29.46744956619873</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="G32" t="n">
-        <v>253.5319045834835</v>
+        <v>341.6784094701709</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>138.9000023092308</v>
+        <v>13.11773985127014</v>
       </c>
       <c r="C33" t="n">
         <v>132.6551205385437</v>
@@ -3158,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V33" t="n">
-        <v>159.6908732144031</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>42.43741174507667</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>65.42520756919177</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -3252,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>72.08725208919876</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>390.1527797502169</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>341.6784094701709</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3356,10 +3356,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H36" t="n">
         <v>70.03974083464111</v>
@@ -3395,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T36" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>40.89672333046501</v>
+        <v>90.13614576116511</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>157.8079400398083</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3432,7 +3432,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -3441,10 +3441,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>150.0403543762513</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>186.6550518816532</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>342.2463191728428</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>169.2103782980058</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>110.6854090853398</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>105.9202115588047</v>
@@ -3602,7 +3602,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V39" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
         <v>211.1008365810345</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>161.5901221570377</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3720,16 +3720,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>262.253757051989</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y41" t="n">
-        <v>134.4601407880868</v>
+        <v>123.6621491913813</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>68.99830831131459</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
@@ -3833,7 +3833,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>70.03974083464111</v>
@@ -3872,22 +3872,22 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>126.6742602997031</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>37.2541081814413</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3982,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>249.8291171763718</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>5.569312247320619</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.5720122196227</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
         <v>107.8702810193205</v>
@@ -4076,7 +4076,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4118,10 +4118,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0.2054794109443298</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>54.68688746169129</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.21222238001735</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="C23" t="n">
-        <v>31.21222238001735</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="D23" t="n">
-        <v>31.21222238001735</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="E23" t="n">
-        <v>31.21222238001735</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="F23" t="n">
-        <v>31.21222238001735</v>
+        <v>551.9693510819263</v>
       </c>
       <c r="G23" t="n">
-        <v>31.21222238001735</v>
+        <v>157.8756341625153</v>
       </c>
       <c r="H23" t="n">
         <v>31.21222238001735</v>
@@ -5992,49 +5992,49 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K23" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L23" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M23" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N23" t="n">
         <v>671.6489458004863</v>
       </c>
       <c r="O23" t="n">
-        <v>853.1988602528609</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P23" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q23" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R23" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S23" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T23" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U23" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V23" t="n">
-        <v>1210.773564337348</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="W23" t="n">
-        <v>827.0132634725169</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="X23" t="n">
-        <v>432.9195465531059</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="Y23" t="n">
-        <v>425.3059392994284</v>
+        <v>946.0630680013373</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>710.0430642665517</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C24" t="n">
-        <v>576.0479930154975</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D24" t="n">
-        <v>459.1508352348899</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E24" t="n">
-        <v>338.6580192272179</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F24" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G24" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H24" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I24" t="n">
         <v>31.21222238001735</v>
@@ -6074,46 +6074,46 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L24" t="n">
-        <v>996.52758384808</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M24" t="n">
-        <v>1382.778835800795</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N24" t="n">
-        <v>1382.778835800795</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O24" t="n">
-        <v>1382.778835800795</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P24" t="n">
-        <v>1382.778835800795</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q24" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R24" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S24" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T24" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U24" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V24" t="n">
-        <v>1187.55772818091</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="W24" t="n">
-        <v>1186.074038399415</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="X24" t="n">
-        <v>1009.748056538308</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="Y24" t="n">
-        <v>850.3460969021384</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>524.0045544755633</v>
+        <v>351.6176821887879</v>
       </c>
       <c r="C25" t="n">
-        <v>524.0045544755633</v>
+        <v>351.6176821887879</v>
       </c>
       <c r="D25" t="n">
-        <v>524.0045544755633</v>
+        <v>192.1230375116979</v>
       </c>
       <c r="E25" t="n">
-        <v>363.0937393438827</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F25" t="n">
-        <v>198.4626134544739</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G25" t="n">
         <v>31.21222238001735</v>
@@ -6150,13 +6150,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K25" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L25" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M25" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N25" t="n">
         <v>1029.84703862227</v>
@@ -6171,28 +6171,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R25" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S25" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T25" t="n">
-        <v>1560.611119000868</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="U25" t="n">
-        <v>1560.611119000868</v>
+        <v>952.9915141990934</v>
       </c>
       <c r="V25" t="n">
-        <v>1286.72537394039</v>
+        <v>814.6972429403397</v>
       </c>
       <c r="W25" t="n">
-        <v>1007.655709449264</v>
+        <v>814.6972429403397</v>
       </c>
       <c r="X25" t="n">
-        <v>769.3118473089473</v>
+        <v>576.3533808000232</v>
       </c>
       <c r="Y25" t="n">
-        <v>711.7042608696077</v>
+        <v>351.6176821887879</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>809.0298428224162</v>
+        <v>569.952771732027</v>
       </c>
       <c r="C26" t="n">
-        <v>809.0298428224162</v>
+        <v>569.952771732027</v>
       </c>
       <c r="D26" t="n">
-        <v>809.0298428224162</v>
+        <v>569.952771732027</v>
       </c>
       <c r="E26" t="n">
-        <v>809.0298428224162</v>
+        <v>569.952771732027</v>
       </c>
       <c r="F26" t="n">
-        <v>809.0298428224162</v>
+        <v>175.859054812616</v>
       </c>
       <c r="G26" t="n">
-        <v>414.9361259030052</v>
+        <v>175.859054812616</v>
       </c>
       <c r="H26" t="n">
-        <v>104.0276285307232</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I26" t="n">
         <v>31.21222238001735</v>
@@ -6229,49 +6229,49 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K26" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L26" t="n">
-        <v>285.3976938477716</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M26" t="n">
-        <v>285.3976938477716</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N26" t="n">
-        <v>426.3909626105813</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="O26" t="n">
-        <v>812.642214563296</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="P26" t="n">
-        <v>1198.893466516011</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q26" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R26" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S26" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T26" t="n">
-        <v>1203.123559741827</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U26" t="n">
-        <v>1203.123559741827</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="V26" t="n">
-        <v>1203.123559741827</v>
+        <v>953.7130725968584</v>
       </c>
       <c r="W26" t="n">
-        <v>1203.123559741827</v>
+        <v>569.952771732027</v>
       </c>
       <c r="X26" t="n">
-        <v>809.0298428224162</v>
+        <v>569.952771732027</v>
       </c>
       <c r="Y26" t="n">
-        <v>809.0298428224162</v>
+        <v>569.952771732027</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>192.9527650369019</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C27" t="n">
-        <v>151.7050383876894</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="D27" t="n">
-        <v>151.7050383876894</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="E27" t="n">
-        <v>31.21222238001735</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="F27" t="n">
-        <v>31.21222238001735</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G27" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H27" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I27" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J27" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K27" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L27" t="n">
-        <v>31.21222238001735</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N27" t="n">
-        <v>803.7147262854468</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O27" t="n">
-        <v>1189.965978238161</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="P27" t="n">
-        <v>1210.766654316884</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="Q27" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R27" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S27" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T27" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U27" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V27" t="n">
-        <v>882.216907433437</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W27" t="n">
-        <v>668.9837391697657</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X27" t="n">
-        <v>492.6577573086585</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y27" t="n">
-        <v>333.2557976724885</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>630.7621873641457</v>
+        <v>687.3421805164801</v>
       </c>
       <c r="C28" t="n">
-        <v>459.6688149258622</v>
+        <v>516.2488080781966</v>
       </c>
       <c r="D28" t="n">
-        <v>300.1741702487722</v>
+        <v>356.7541634011066</v>
       </c>
       <c r="E28" t="n">
-        <v>139.2633551170917</v>
+        <v>195.8433482694261</v>
       </c>
       <c r="F28" t="n">
         <v>31.21222238001735</v>
@@ -6390,10 +6390,10 @@
         <v>199.8470995074659</v>
       </c>
       <c r="L28" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M28" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N28" t="n">
         <v>1029.84703862227</v>
@@ -6411,25 +6411,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S28" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T28" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U28" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="V28" t="n">
-        <v>1560.611119000868</v>
+        <v>1100.3336058203</v>
       </c>
       <c r="W28" t="n">
-        <v>1281.541454509742</v>
+        <v>821.263941329174</v>
       </c>
       <c r="X28" t="n">
-        <v>1043.197592369425</v>
+        <v>687.3421805164801</v>
       </c>
       <c r="Y28" t="n">
-        <v>818.4618937581901</v>
+        <v>687.3421805164801</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>736.2144366717104</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="C29" t="n">
-        <v>736.2144366717104</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D29" t="n">
-        <v>736.2144366717104</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="E29" t="n">
-        <v>736.2144366717104</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F29" t="n">
-        <v>736.2144366717104</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G29" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H29" t="n">
         <v>31.21222238001735</v>
@@ -6472,13 +6472,13 @@
         <v>285.3976938477716</v>
       </c>
       <c r="M29" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N29" t="n">
-        <v>1057.900197753201</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O29" t="n">
-        <v>1198.893466516011</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P29" t="n">
         <v>1198.893466516011</v>
@@ -6490,25 +6490,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S29" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T29" t="n">
-        <v>1387.368645331611</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U29" t="n">
-        <v>1130.308153591121</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V29" t="n">
-        <v>1130.308153591121</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="W29" t="n">
-        <v>1130.308153591121</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="X29" t="n">
-        <v>736.2144366717104</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="Y29" t="n">
-        <v>736.2144366717104</v>
+        <v>819.3996562188394</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>300.9427749225932</v>
+        <v>511.5571472368467</v>
       </c>
       <c r="C30" t="n">
-        <v>255.0994928462862</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="D30" t="n">
-        <v>138.2023350656787</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E30" t="n">
-        <v>138.2023350656787</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F30" t="n">
-        <v>138.2023350656787</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G30" t="n">
         <v>31.21222238001735</v>
@@ -6551,16 +6551,16 @@
         <v>996.52758384808</v>
       </c>
       <c r="M30" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N30" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O30" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P30" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q30" t="n">
         <v>1531.051599638238</v>
@@ -6569,25 +6569,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S30" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T30" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U30" t="n">
-        <v>1203.918444326094</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V30" t="n">
-        <v>990.2069173191283</v>
+        <v>987.5881213697105</v>
       </c>
       <c r="W30" t="n">
-        <v>776.973749055457</v>
+        <v>987.5881213697105</v>
       </c>
       <c r="X30" t="n">
-        <v>600.6477671943499</v>
+        <v>811.2621395086032</v>
       </c>
       <c r="Y30" t="n">
-        <v>441.2458075581799</v>
+        <v>651.8601798724333</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>538.4657938752982</v>
+        <v>385.103093518434</v>
       </c>
       <c r="C31" t="n">
-        <v>538.4657938752982</v>
+        <v>385.103093518434</v>
       </c>
       <c r="D31" t="n">
-        <v>538.4657938752982</v>
+        <v>225.608448841344</v>
       </c>
       <c r="E31" t="n">
-        <v>377.5549787436177</v>
+        <v>225.608448841344</v>
       </c>
       <c r="F31" t="n">
-        <v>212.923852854209</v>
+        <v>60.97732295193526</v>
       </c>
       <c r="G31" t="n">
-        <v>45.67346177975239</v>
+        <v>60.97732295193526</v>
       </c>
       <c r="H31" t="n">
-        <v>31.21222238001724</v>
+        <v>60.97732295193526</v>
       </c>
       <c r="I31" t="n">
-        <v>31.21222238001724</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J31" t="n">
-        <v>45.29477178522779</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K31" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L31" t="n">
-        <v>459.7441997875263</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M31" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N31" t="n">
         <v>1029.84703862227</v>
@@ -6651,22 +6651,22 @@
         <v>1374.219350880778</v>
       </c>
       <c r="T31" t="n">
-        <v>1374.219350880778</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U31" t="n">
-        <v>1091.421203426902</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V31" t="n">
-        <v>817.5354583664239</v>
+        <v>851.872464403604</v>
       </c>
       <c r="W31" t="n">
-        <v>538.4657938752982</v>
+        <v>572.8027999124783</v>
       </c>
       <c r="X31" t="n">
-        <v>538.4657938752982</v>
+        <v>572.8027999124783</v>
       </c>
       <c r="Y31" t="n">
-        <v>538.4657938752982</v>
+        <v>572.8027999124783</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1075.492489131449</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="C32" t="n">
-        <v>1075.492489131449</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="D32" t="n">
-        <v>1075.492489131449</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="E32" t="n">
-        <v>681.398772212038</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="F32" t="n">
-        <v>287.305055292627</v>
+        <v>687.2504262878256</v>
       </c>
       <c r="G32" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H32" t="n">
         <v>31.21222238001735</v>
@@ -6703,49 +6703,49 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K32" t="n">
-        <v>31.21222238001735</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L32" t="n">
-        <v>361.3007174531585</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="M32" t="n">
-        <v>747.5519694058733</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="N32" t="n">
-        <v>1133.803221358588</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O32" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P32" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q32" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R32" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S32" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T32" t="n">
-        <v>1425.330043794968</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U32" t="n">
-        <v>1425.330043794968</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V32" t="n">
-        <v>1075.492489131449</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="W32" t="n">
-        <v>1075.492489131449</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="X32" t="n">
-        <v>1075.492489131449</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="Y32" t="n">
-        <v>1075.492489131449</v>
+        <v>1081.344143207237</v>
       </c>
     </row>
     <row r="33">
@@ -6785,46 +6785,46 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L33" t="n">
-        <v>996.52758384808</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M33" t="n">
-        <v>1144.800347685523</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N33" t="n">
-        <v>1144.800347685523</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O33" t="n">
-        <v>1144.800347685523</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P33" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q33" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R33" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S33" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T33" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U33" t="n">
-        <v>1560.611119000868</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V33" t="n">
-        <v>1399.307206663087</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="W33" t="n">
-        <v>1186.074038399415</v>
+        <v>882.6952661767319</v>
       </c>
       <c r="X33" t="n">
-        <v>1009.748056538308</v>
+        <v>882.6952661767319</v>
       </c>
       <c r="Y33" t="n">
-        <v>850.3460969021384</v>
+        <v>723.293306540562</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.6443365274001</v>
+        <v>74.07829484979177</v>
       </c>
       <c r="C34" t="n">
-        <v>213.6443365274001</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D34" t="n">
-        <v>213.6443365274001</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E34" t="n">
-        <v>213.6443365274001</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F34" t="n">
-        <v>213.6443365274001</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G34" t="n">
-        <v>213.6443365274001</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H34" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I34" t="n">
         <v>31.21222238001735</v>
@@ -6882,28 +6882,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R34" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S34" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T34" t="n">
-        <v>1049.39789353288</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U34" t="n">
-        <v>766.5997460790038</v>
+        <v>1277.812971546992</v>
       </c>
       <c r="V34" t="n">
-        <v>492.7140010185257</v>
+        <v>1003.927226486514</v>
       </c>
       <c r="W34" t="n">
-        <v>213.6443365274001</v>
+        <v>724.8575619953881</v>
       </c>
       <c r="X34" t="n">
-        <v>213.6443365274001</v>
+        <v>486.5136998550715</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.6443365274001</v>
+        <v>261.7780012438362</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1203.123559741827</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C35" t="n">
-        <v>1203.123559741827</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D35" t="n">
-        <v>809.0298428224162</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E35" t="n">
         <v>736.2144366717104</v>
@@ -6940,49 +6940,49 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K35" t="n">
-        <v>31.21222238001735</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L35" t="n">
-        <v>361.3007174531585</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M35" t="n">
-        <v>747.5519694058733</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="N35" t="n">
-        <v>1133.803221358588</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="O35" t="n">
-        <v>1520.054473311303</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="P35" t="n">
-        <v>1520.054473311303</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q35" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R35" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S35" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T35" t="n">
-        <v>1203.123559741827</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U35" t="n">
-        <v>1203.123559741827</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V35" t="n">
-        <v>1203.123559741827</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="W35" t="n">
-        <v>1203.123559741827</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="X35" t="n">
-        <v>1203.123559741827</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y35" t="n">
-        <v>1203.123559741827</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>473.3444803836352</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C36" t="n">
-        <v>339.3494091325809</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D36" t="n">
-        <v>222.4522513519733</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E36" t="n">
-        <v>101.9594353443013</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F36" t="n">
-        <v>101.9594353443013</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G36" t="n">
         <v>101.9594353443013</v>
@@ -7022,16 +7022,16 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L36" t="n">
+        <v>610.2763318953653</v>
+      </c>
+      <c r="M36" t="n">
+        <v>610.2763318953653</v>
+      </c>
+      <c r="N36" t="n">
+        <v>610.2763318953653</v>
+      </c>
+      <c r="O36" t="n">
         <v>794.9558830015396</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1181.207134954254</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1181.207134954254</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1181.207134954254</v>
       </c>
       <c r="P36" t="n">
         <v>1181.207134954254</v>
@@ -7043,25 +7043,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S36" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T36" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U36" t="n">
-        <v>1203.918444326094</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V36" t="n">
-        <v>1162.60862278017</v>
+        <v>1202.23263342222</v>
       </c>
       <c r="W36" t="n">
-        <v>949.3754545164991</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="X36" t="n">
-        <v>773.0494726553918</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="Y36" t="n">
-        <v>613.6475130192218</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>959.6352575494734</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="C37" t="n">
-        <v>788.5418851111899</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="D37" t="n">
-        <v>629.0472404340999</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E37" t="n">
-        <v>629.0472404340999</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F37" t="n">
-        <v>464.4161145446911</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G37" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H37" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I37" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J37" t="n">
-        <v>45.29477178522814</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K37" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L37" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M37" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N37" t="n">
         <v>1029.84703862227</v>
@@ -7119,28 +7119,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R37" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S37" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T37" t="n">
-        <v>1560.611119000868</v>
+        <v>1137.390719044813</v>
       </c>
       <c r="U37" t="n">
-        <v>1560.611119000868</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="V37" t="n">
-        <v>1560.611119000868</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="W37" t="n">
-        <v>1560.611119000868</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="X37" t="n">
-        <v>1372.070662554753</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="Y37" t="n">
-        <v>1147.334963943518</v>
+        <v>854.5925715909368</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1168.269552054478</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C38" t="n">
-        <v>822.5661993546372</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D38" t="n">
-        <v>822.5661993546372</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E38" t="n">
-        <v>822.5661993546372</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F38" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G38" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H38" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I38" t="n">
         <v>31.21222238001735</v>
@@ -7177,25 +7177,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K38" t="n">
-        <v>31.21222238001735</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L38" t="n">
-        <v>31.21222238001735</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="M38" t="n">
-        <v>80.69635634743145</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="N38" t="n">
-        <v>466.9476083001462</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O38" t="n">
-        <v>853.1988602528609</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P38" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q38" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R38" t="n">
         <v>1560.611119000868</v>
@@ -7204,22 +7204,22 @@
         <v>1425.330043794968</v>
       </c>
       <c r="T38" t="n">
-        <v>1425.330043794968</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U38" t="n">
-        <v>1168.269552054478</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V38" t="n">
-        <v>1168.269552054478</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W38" t="n">
-        <v>1168.269552054478</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="X38" t="n">
-        <v>1168.269552054478</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="Y38" t="n">
-        <v>1168.269552054478</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>710.0430642665517</v>
+        <v>441.2458075581799</v>
       </c>
       <c r="C39" t="n">
-        <v>576.0479930154975</v>
+        <v>441.2458075581799</v>
       </c>
       <c r="D39" t="n">
-        <v>459.1508352348899</v>
+        <v>329.4423640376347</v>
       </c>
       <c r="E39" t="n">
-        <v>338.6580192272179</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="F39" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G39" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H39" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I39" t="n">
         <v>31.21222238001735</v>
@@ -7256,19 +7256,19 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K39" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L39" t="n">
-        <v>224.0250799426506</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M39" t="n">
-        <v>224.0250799426506</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N39" t="n">
-        <v>408.7046310488249</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O39" t="n">
-        <v>794.9558830015396</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P39" t="n">
         <v>1181.207134954254</v>
@@ -7283,22 +7283,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T39" t="n">
-        <v>1560.611119000868</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U39" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V39" t="n">
-        <v>1399.307206663087</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W39" t="n">
-        <v>1186.074038399415</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X39" t="n">
-        <v>1009.748056538308</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y39" t="n">
-        <v>850.3460969021384</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.21222238001735</v>
+        <v>687.3421805164801</v>
       </c>
       <c r="C40" t="n">
-        <v>31.21222238001735</v>
+        <v>516.2488080781966</v>
       </c>
       <c r="D40" t="n">
-        <v>31.21222238001735</v>
+        <v>356.7541634011066</v>
       </c>
       <c r="E40" t="n">
-        <v>31.21222238001735</v>
+        <v>195.8433482694261</v>
       </c>
       <c r="F40" t="n">
         <v>31.21222238001735</v>
@@ -7329,19 +7329,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="I40" t="n">
-        <v>31.21222238001761</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J40" t="n">
-        <v>45.29477178522814</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K40" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L40" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M40" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N40" t="n">
         <v>1029.84703862227</v>
@@ -7359,25 +7359,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S40" t="n">
-        <v>1560.611119000868</v>
+        <v>1397.388773387698</v>
       </c>
       <c r="T40" t="n">
-        <v>1321.06237997757</v>
+        <v>1157.8400343644</v>
       </c>
       <c r="U40" t="n">
-        <v>1038.264232523694</v>
+        <v>875.0418869105245</v>
       </c>
       <c r="V40" t="n">
-        <v>773.3614476226949</v>
+        <v>875.0418869105245</v>
       </c>
       <c r="W40" t="n">
-        <v>494.2917831315693</v>
+        <v>875.0418869105245</v>
       </c>
       <c r="X40" t="n">
-        <v>255.9479209912527</v>
+        <v>875.0418869105245</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.21222238001735</v>
+        <v>875.0418869105245</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>511.6577019823551</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C41" t="n">
-        <v>511.6577019823551</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D41" t="n">
-        <v>511.6577019823551</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E41" t="n">
-        <v>117.5639850629442</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F41" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G41" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H41" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I41" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J41" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K41" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L41" t="n">
-        <v>40.13971065786643</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M41" t="n">
-        <v>426.390962610581</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N41" t="n">
-        <v>812.6422145632956</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="O41" t="n">
-        <v>812.6422145632956</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="P41" t="n">
-        <v>1198.89346651601</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q41" t="n">
-        <v>1520.054473311302</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R41" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S41" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T41" t="n">
-        <v>1425.330043794968</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U41" t="n">
-        <v>1425.330043794968</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V41" t="n">
-        <v>1425.330043794968</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="W41" t="n">
-        <v>1041.569742930136</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="X41" t="n">
-        <v>647.4760260107256</v>
+        <v>944.3109180283154</v>
       </c>
       <c r="Y41" t="n">
-        <v>511.6577019823551</v>
+        <v>819.3996562188394</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>689.2944728867919</v>
+        <v>582.3043602011305</v>
       </c>
       <c r="C42" t="n">
-        <v>555.2994016357376</v>
+        <v>448.3092889500763</v>
       </c>
       <c r="D42" t="n">
-        <v>438.40224385513</v>
+        <v>331.4121311694687</v>
       </c>
       <c r="E42" t="n">
-        <v>317.909427847458</v>
+        <v>210.9193151617967</v>
       </c>
       <c r="F42" t="n">
-        <v>208.9495480299626</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="G42" t="n">
         <v>101.9594353443013</v>
       </c>
       <c r="H42" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I42" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J42" t="n">
-        <v>31.21222238001734</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K42" t="n">
-        <v>31.21222238001734</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7046310488247</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M42" t="n">
-        <v>408.7046310488247</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N42" t="n">
-        <v>408.7046310488247</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O42" t="n">
-        <v>794.9558830015393</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P42" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q42" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R42" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S42" t="n">
         <v>1452.621109115176</v>
       </c>
       <c r="T42" t="n">
-        <v>1293.279245302184</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U42" t="n">
-        <v>1293.279245302184</v>
+        <v>1255.270298253395</v>
       </c>
       <c r="V42" t="n">
-        <v>1293.279245302184</v>
+        <v>1041.558771246429</v>
       </c>
       <c r="W42" t="n">
-        <v>1165.325447019656</v>
+        <v>828.3256029827575</v>
       </c>
       <c r="X42" t="n">
-        <v>988.9994651585486</v>
+        <v>651.9996211216503</v>
       </c>
       <c r="Y42" t="n">
-        <v>829.5975055223786</v>
+        <v>651.9996211216503</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1008.569029791097</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C43" t="n">
-        <v>837.4756573528132</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D43" t="n">
-        <v>677.9810126757232</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E43" t="n">
-        <v>517.0701975440427</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F43" t="n">
-        <v>352.4390716546339</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G43" t="n">
-        <v>185.1886805801774</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H43" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I43" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J43" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K43" t="n">
         <v>199.8470995074659</v>
@@ -7578,7 +7578,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M43" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N43" t="n">
         <v>1029.84703862227</v>
@@ -7587,34 +7587,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P43" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q43" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R43" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S43" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T43" t="n">
-        <v>1475.338400676267</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.338400676267</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.338400676267</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W43" t="n">
-        <v>1196.268736185141</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X43" t="n">
-        <v>1196.268736185141</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y43" t="n">
-        <v>1196.268736185141</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.7462876788858</v>
+        <v>988.5670802842071</v>
       </c>
       <c r="C44" t="n">
-        <v>347.7462876788858</v>
+        <v>988.5670802842071</v>
       </c>
       <c r="D44" t="n">
-        <v>347.7462876788858</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E44" t="n">
-        <v>347.7462876788858</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F44" t="n">
-        <v>347.7462876788858</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G44" t="n">
-        <v>347.7462876788858</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H44" t="n">
-        <v>36.83779030660384</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I44" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J44" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K44" t="n">
-        <v>671.6489458004863</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L44" t="n">
-        <v>1057.900197753201</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M44" t="n">
-        <v>1444.151449705916</v>
+        <v>40.13971065786654</v>
       </c>
       <c r="N44" t="n">
-        <v>1520.054473311303</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.054473311303</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P44" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q44" t="n">
         <v>1520.054473311303</v>
@@ -7681,19 +7681,19 @@
         <v>1338.404634947726</v>
       </c>
       <c r="U44" t="n">
-        <v>1081.344143207237</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V44" t="n">
-        <v>731.5065885437173</v>
+        <v>988.5670802842071</v>
       </c>
       <c r="W44" t="n">
-        <v>347.7462876788858</v>
+        <v>988.5670802842071</v>
       </c>
       <c r="X44" t="n">
-        <v>347.7462876788858</v>
+        <v>988.5670802842071</v>
       </c>
       <c r="Y44" t="n">
-        <v>347.7462876788858</v>
+        <v>988.5670802842071</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>231.6679065415565</v>
+        <v>582.3043602011305</v>
       </c>
       <c r="C45" t="n">
-        <v>231.6679065415565</v>
+        <v>448.3092889500763</v>
       </c>
       <c r="D45" t="n">
-        <v>231.6679065415565</v>
+        <v>331.4121311694687</v>
       </c>
       <c r="E45" t="n">
-        <v>231.6679065415565</v>
+        <v>210.9193151617967</v>
       </c>
       <c r="F45" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="G45" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I45" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K45" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L45" t="n">
-        <v>417.4634743327321</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M45" t="n">
-        <v>803.7147262854468</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N45" t="n">
-        <v>803.7147262854468</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O45" t="n">
-        <v>1189.965978238161</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P45" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q45" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R45" t="n">
         <v>1560.611119000868</v>
@@ -7766,13 +7766,13 @@
         <v>882.216907433437</v>
       </c>
       <c r="W45" t="n">
-        <v>668.9837391697657</v>
+        <v>882.0093524728871</v>
       </c>
       <c r="X45" t="n">
-        <v>492.6577573086585</v>
+        <v>882.0093524728871</v>
       </c>
       <c r="Y45" t="n">
-        <v>333.2557976724885</v>
+        <v>722.6073928367172</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.21222238001734</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="C46" t="n">
-        <v>31.21222238001734</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="D46" t="n">
-        <v>31.21222238001734</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E46" t="n">
-        <v>31.21222238001734</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F46" t="n">
-        <v>31.21222238001734</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G46" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H46" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J46" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L46" t="n">
         <v>459.7441997875264</v>
@@ -7836,22 +7836,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T46" t="n">
-        <v>1321.06237997757</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U46" t="n">
-        <v>1038.264232523694</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V46" t="n">
-        <v>764.3784874632158</v>
+        <v>1505.371838736533</v>
       </c>
       <c r="W46" t="n">
-        <v>485.3088229720902</v>
+        <v>1505.371838736533</v>
       </c>
       <c r="X46" t="n">
-        <v>246.9649608317736</v>
+        <v>1267.027976596216</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.21222238001734</v>
+        <v>1042.292277984981</v>
       </c>
     </row>
   </sheetData>
@@ -9640,7 +9640,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L23" t="n">
         <v>95.48539806284482</v>
@@ -9649,10 +9649,10 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>276.5735275978786</v>
+        <v>235.6072188205403</v>
       </c>
       <c r="P23" t="n">
         <v>483.8021430311011</v>
@@ -9661,7 +9661,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,13 +9722,13 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L24" t="n">
-        <v>446.2673035610659</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M24" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
@@ -9737,10 +9737,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.3211873938012</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
@@ -9877,28 +9877,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N26" t="n">
-        <v>235.3297339513765</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>483.8021430311011</v>
+        <v>211.2853928717445</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M27" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>447.9042587502169</v>
       </c>
       <c r="P27" t="n">
-        <v>75.27041892070574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>206.4630870275083</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
-        <v>317.1506174091145</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
         <v>348.4508580952379</v>
@@ -10120,16 +10120,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>483.0650705068362</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O29" t="n">
-        <v>235.6072188205402</v>
+        <v>483.342555376</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q29" t="n">
         <v>414.4388617681339</v>
@@ -10199,7 +10199,7 @@
         <v>446.2673035610659</v>
       </c>
       <c r="M30" t="n">
-        <v>207.334752261087</v>
+        <v>244.1092848557653</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
@@ -10208,10 +10208,10 @@
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10351,19 +10351,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L32" t="n">
-        <v>428.908120358947</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M32" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N32" t="n">
-        <v>483.0650705068362</v>
+        <v>467.3013218300599</v>
       </c>
       <c r="O32" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
         <v>93.64936328088416</v>
@@ -10372,7 +10372,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,16 +10433,16 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L33" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>207.334752261087</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P33" t="n">
         <v>444.4124147530206</v>
@@ -10451,7 +10451,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L35" t="n">
-        <v>428.908120358947</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>483.4430042072623</v>
+        <v>143.2741981615041</v>
       </c>
       <c r="N35" t="n">
         <v>483.0650705068362</v>
@@ -10606,10 +10606,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,19 +10670,19 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L36" t="n">
-        <v>242.6595249281969</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>244.2964801173478</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.65794306195622</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
         <v>208.3638319047618</v>
@@ -10825,16 +10825,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>104.5030629899652</v>
       </c>
       <c r="M38" t="n">
-        <v>143.2741981615041</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
         <v>483.342555376</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>239.7383945110978</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>447.9042587502169</v>
+        <v>244.2964801173478</v>
       </c>
       <c r="P39" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11065,25 +11065,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>104.5030629899651</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>483.4430042072622</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N41" t="n">
-        <v>483.0650705068361</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P41" t="n">
-        <v>483.802143031101</v>
+        <v>143.633336985343</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L42" t="n">
-        <v>437.4199871126747</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>447.9042587502168</v>
+        <v>237.3800478889625</v>
       </c>
       <c r="P42" t="n">
-        <v>444.4124147530205</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>483.4430042072623</v>
+        <v>102.3078893841658</v>
       </c>
       <c r="N44" t="n">
-        <v>169.5820115701414</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L45" t="n">
-        <v>446.2673035610659</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M45" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>75.27041892070574</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24217,13 +24217,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>182.4026347338862</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.3898351402501</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,10 +24344,10 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>209.6319836973553</v>
+        <v>84.42657628133097</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>134.2355590637071</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.4568310501766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G26" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>164.5990482902865</v>
       </c>
       <c r="I26" t="n">
-        <v>13.40099296689881</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24524,25 +24524,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>91.81987115582334</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>37.33809186157839</v>
       </c>
       <c r="G27" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>56.01419322081105</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -24651,7 +24651,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -24660,16 +24660,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>103.3778803143464</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24688,16 +24688,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G29" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>182.4026347338863</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>137.6022642028776</v>
       </c>
     </row>
     <row r="30">
@@ -24761,19 +24761,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>87.27027128299983</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H30" t="n">
         <v>70.03974083464111</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,10 +24818,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>104.3175017969108</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>133.7947536368601</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>85.71513587051837</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>26.66732817563241</v>
       </c>
       <c r="G32" t="n">
-        <v>151.1090966826126</v>
+        <v>62.96259179592516</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>125.7822624579606</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25046,22 +25046,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>51.88353852249338</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>126.945026968824</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25092,10 +25092,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>82.68617307340614</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,10 +25159,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>338.1095612390735</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>26.66732817563241</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>4.660769646713163</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -25244,10 +25244,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V36" t="n">
-        <v>170.6776884064315</v>
+        <v>121.4382659757314</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>87.11289725681365</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25377,10 +25377,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>49.30537163726024</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>63.77702560701971</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25408,10 +25408,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>210.7123195581773</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>5.042777117461725</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,13 +25523,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -25599,7 +25599,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>22.93772828185112</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>8.893130557884263</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25636,10 +25636,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>20.04403357805546</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
@@ -25648,7 +25648,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -25690,13 +25690,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>6.484184102520203</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.467165533304</v>
+        <v>273.2651571300095</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>69.90169399791617</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>84.42657628133141</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>110.8572724611566</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="44">
@@ -25870,13 +25870,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>150.5901734314983</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>79.91893280877694</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>38.32799008960808</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26006,10 +26006,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>210.8953571700902</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26076,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>216.460000148182</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884291</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>493560.0360921597</v>
+        <v>493560.0360921596</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>493560.0360921596</v>
+        <v>493560.0360921598</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>493560.0360921598</v>
+        <v>493560.0360921597</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493560.0360921597</v>
+        <v>493560.0360921596</v>
       </c>
     </row>
     <row r="16">
@@ -26441,25 +26441,25 @@
         <v>40657.3542717251</v>
       </c>
       <c r="J4" t="n">
+        <v>40657.35427172508</v>
+      </c>
+      <c r="K4" t="n">
         <v>40657.3542717251</v>
       </c>
-      <c r="K4" t="n">
-        <v>40657.35427172508</v>
-      </c>
       <c r="L4" t="n">
-        <v>40657.35427172508</v>
+        <v>40657.35427172509</v>
       </c>
       <c r="M4" t="n">
+        <v>40657.35427172509</v>
+      </c>
+      <c r="N4" t="n">
+        <v>40657.35427172509</v>
+      </c>
+      <c r="O4" t="n">
         <v>40657.3542717251</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>40657.3542717251</v>
-      </c>
-      <c r="O4" t="n">
-        <v>40657.35427172508</v>
-      </c>
-      <c r="P4" t="n">
-        <v>40657.35427172509</v>
       </c>
     </row>
     <row r="5">
@@ -26508,7 +26508,7 @@
         <v>23721.28900881319</v>
       </c>
       <c r="O5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="P5" t="n">
         <v>23721.28900881319</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="C6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="D6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="E6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619474</v>
       </c>
       <c r="F6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619474</v>
       </c>
       <c r="G6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619474</v>
       </c>
       <c r="H6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619474</v>
       </c>
       <c r="I6" t="n">
-        <v>-64757.70546433839</v>
+        <v>-65591.36973958481</v>
       </c>
       <c r="J6" t="n">
-        <v>38992.11187961901</v>
+        <v>38158.4476043726</v>
       </c>
       <c r="K6" t="n">
-        <v>38992.11187961906</v>
+        <v>38158.44760437259</v>
       </c>
       <c r="L6" t="n">
-        <v>38992.11187961906</v>
+        <v>38158.44760437262</v>
       </c>
       <c r="M6" t="n">
-        <v>38992.11187961901</v>
+        <v>38158.4476043726</v>
       </c>
       <c r="N6" t="n">
-        <v>38992.11187961903</v>
+        <v>38158.4476043726</v>
       </c>
       <c r="O6" t="n">
-        <v>38992.11187961903</v>
+        <v>38158.4476043726</v>
       </c>
       <c r="P6" t="n">
-        <v>38992.11187961904</v>
+        <v>38158.4476043726</v>
       </c>
     </row>
   </sheetData>
@@ -26828,7 +26828,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="O4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P4" t="n">
         <v>390.1527797502169</v>
@@ -36360,7 +36360,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36369,10 +36369,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>183.3837519720955</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="P23" t="n">
         <v>390.1527797502169</v>
@@ -36381,7 +36381,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,14 +36442,14 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L24" t="n">
+        <v>186.5450011173479</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M24" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>179.6285688889625</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K25" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L25" t="n">
         <v>262.5223235152127</v>
@@ -36597,28 +36597,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N26" t="n">
-        <v>142.4174431947572</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>390.1527797502169</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M27" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P27" t="n">
-        <v>21.01078391790199</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>149.7704685226696</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>156.1134623456949</v>
       </c>
       <c r="L28" t="n">
-        <v>262.522323515213</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M28" t="n">
         <v>292.1859155964578</v>
@@ -36773,7 +36773,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.18992909344529</v>
+        <v>66.18992909344536</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,16 +36840,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O29" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="O29" t="n">
-        <v>142.4174431947571</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>324.4050573689818</v>
@@ -36919,7 +36919,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M30" t="n">
-        <v>149.7704685226696</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>29.85810036629282</v>
@@ -37071,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L32" t="n">
-        <v>333.4227222961022</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M32" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N32" t="n">
-        <v>390.1527797502169</v>
+        <v>374.3890310734406</v>
       </c>
       <c r="O32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>179.6285688889625</v>
+      </c>
+      <c r="O33" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M33" t="n">
-        <v>149.7704685226696</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>390.1527797502169</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L35" t="n">
-        <v>333.4227222961022</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>390.1527797502169</v>
+        <v>49.98397370445868</v>
       </c>
       <c r="N35" t="n">
         <v>390.1527797502169</v>
@@ -37326,10 +37326,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>186.5450011173479</v>
       </c>
-      <c r="M36" t="n">
+      <c r="P36" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>14.22479737900079</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K37" t="n">
         <v>156.1134623456949</v>
@@ -37484,7 +37484,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.18992909344529</v>
+        <v>66.18992909344536</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>9.017664927120396</v>
       </c>
       <c r="M38" t="n">
-        <v>49.98397370445868</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>390.1527797502169</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>186.5450011173478</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="P39" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37785,25 +37785,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>9.01766492712029</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N41" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P41" t="n">
-        <v>390.1527797502168</v>
+        <v>49.9839737044588</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L42" t="n">
-        <v>381.3054633018256</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>390.1527797502168</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="P42" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>9.017664927120396</v>
+      </c>
+      <c r="N44" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L44" t="n">
+      <c r="O44" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M44" t="n">
+      <c r="P44" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N44" t="n">
-        <v>76.66972081352203</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L45" t="n">
+        <v>186.5450011173479</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M45" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P45" t="n">
-        <v>21.01078391790199</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
